--- a/biology/Microbiologie/Uronychiidae/Uronychiidae.xlsx
+++ b/biology/Microbiologie/Uronychiidae/Uronychiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Uronychiidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Euplotida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Uronychia, dérivé du grec ancien οὐρά / ourá, « queue », et νυξ / nyx, « nuit ».
 </t>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre type Uronychia sont des Euplotida difficiles à identifier car elles se caractérisent par un péristome complexe à interpréter. Il se présente comme une grande dépression ovale qui dépasse légèrement sur la partie avant de l'AZM[note 1]. Son bord droit montre une crête à double contour, portant une grande membrane ondulée, qui entoure également le bord postérieur jusqu'à la partie orale ; elle montre une série de plis marginaux en forme de cirres et d'autres plis complexes[1].
-L’AZM dont la partie frontale est puissante, est constituée de larges membranes insérées dans des encoches profonde ; à droite 3 petites membranes transversales ; sur le « coude » antérieur gauche il y a 2 ou 3 membranes falciformes (en forme de lame de faux ou de faucille) très larges et longues faisant saillie vers l'extérieur. Une seconde membrane longe le bord gauche du péristome ; elle est composée de plusieurs parties faiblement accolées, chaque partie correspondant à une membranelle de l’AZM ; leurs crêtes basales sont presque toutes tournées dans le sens longitudinal de l'AZM[1].
-Les cirres transversalles sont robustes ; à droite seuls 4 cirrus sont complètement développés ; 3 puissants cirres marginaux droits en forme de crochet débordant de la fosse dorsale latérale, s'insèrent dans une fosse dorsale ; à gauche, 2 cirres marginales ont aussi un fort développement. Les cils restants sont 2 petits cirres à l'arrière droit sur la face ventrale. Les cirres frontaux sont entièrement absents[1]. 
-La vacuole contractile est postérieure à droite. Le noyau forme généralement un fer à cheval plus ou moins fragmenté, ouvert vers la droite, avec au milieu un micronoyau[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre type Uronychia sont des Euplotida difficiles à identifier car elles se caractérisent par un péristome complexe à interpréter. Il se présente comme une grande dépression ovale qui dépasse légèrement sur la partie avant de l'AZM[note 1]. Son bord droit montre une crête à double contour, portant une grande membrane ondulée, qui entoure également le bord postérieur jusqu'à la partie orale ; elle montre une série de plis marginaux en forme de cirres et d'autres plis complexes.
+L’AZM dont la partie frontale est puissante, est constituée de larges membranes insérées dans des encoches profonde ; à droite 3 petites membranes transversales ; sur le « coude » antérieur gauche il y a 2 ou 3 membranes falciformes (en forme de lame de faux ou de faucille) très larges et longues faisant saillie vers l'extérieur. Une seconde membrane longe le bord gauche du péristome ; elle est composée de plusieurs parties faiblement accolées, chaque partie correspondant à une membranelle de l’AZM ; leurs crêtes basales sont presque toutes tournées dans le sens longitudinal de l'AZM.
+Les cirres transversalles sont robustes ; à droite seuls 4 cirrus sont complètement développés ; 3 puissants cirres marginaux droits en forme de crochet débordant de la fosse dorsale latérale, s'insèrent dans une fosse dorsale ; à gauche, 2 cirres marginales ont aussi un fort développement. Les cils restants sont 2 petits cirres à l'arrière droit sur la face ventrale. Les cirres frontaux sont entièrement absents. 
+La vacuole contractile est postérieure à droite. Le noyau forme généralement un fer à cheval plus ou moins fragmenté, ouvert vers la droite, avec au milieu un micronoyau. 
 La face dorsale, fortement arquée, présente 5 sillons longitudinaux, qui sont couverts de soies courtes. 
-La carapace dorsale est recourbée vers l'avant et est surmontée par la face terminale (arrondie ou légèrement pointue) du péristome[1].
+La carapace dorsale est recourbée vers l'avant et est surmontée par la face terminale (arrondie ou légèrement pointue) du péristome.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Uronychiidae a une aire de répartition largement mondiale[2].
-Le genre type Uronychia est, selon les observations d'Alfred Kahl, un genre vivant aussi bien dans les eaux salées de mer du Nord et de mer Baltique, que dans des eaux saumâtres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Uronychiidae a une aire de répartition largement mondiale.
+Le genre type Uronychia est, selon les observations d'Alfred Kahl, un genre vivant aussi bien dans les eaux salées de mer du Nord et de mer Baltique, que dans des eaux saumâtres.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 février 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 février 2023) :
 Apodiophrys Jiang &amp; Song, 2010
 Diophryopsis Hill &amp; Borror, 1992
 Diophrys Dujardin, 1841
@@ -621,7 +641,7 @@
 Pseudodiophrys Jiang, Warren &amp; Song, 2011
 Uronychia Stein, 1859 genre type Synonyme : Campylopus Claparede &amp; Lachmann, 1858
 Espèce type : Trichoda transfuga Müller, 1776 ⇔ Uronychia transfuga (Müller, 1776) Stein, 1859
-Selon le World Register of Marine Species                               (11 février 2023)[3] :
+Selon le World Register of Marine Species                               (11 février 2023) :
 Diophryopsis Hill &amp; Borror, 1992
 Diophrys Dujardin, 1841
 Paradiophrys Jankowski, 1978
@@ -654,9 +674,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Uronychiidae Jankowksi, 1975[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Uronychiidae Jankowksi, 1975.
 </t>
         </is>
       </c>
